--- a/CodeShare_schedule.xlsx
+++ b/CodeShare_schedule.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\ShareCodeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_CCCF20C9721AE9F9DDC58BB35CF51F827FF04BB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -26,19 +33,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
+    <t>Codeshare Project schedule</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>April 19th</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Comments on Chap. 7 from Trevor</t>
+  </si>
+  <si>
+    <t>Check if Chap. 9 needs comments</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
     <t>Discontinuation rates for Chap. 7</t>
   </si>
   <si>
-    <t>Comments on Chap. 7 from Trevor</t>
-  </si>
-  <si>
-    <t>Deadline</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>CA</t>
+    <t>Finish Chap. 7</t>
+  </si>
+  <si>
+    <t>CA/SA</t>
   </si>
   <si>
     <t>Review Chap. 9 code</t>
@@ -50,40 +72,43 @@
     <t>Review Chap. 7 code</t>
   </si>
   <si>
-    <t>CA/SA</t>
+    <t>Finish Chap. 8</t>
+  </si>
+  <si>
+    <t>Finish Chap. 4</t>
+  </si>
+  <si>
+    <t>May 30th</t>
+  </si>
+  <si>
+    <t>Review Chap. 4 code</t>
+  </si>
+  <si>
+    <t>Review Chap. 8 code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 15th </t>
+  </si>
+  <si>
+    <t>Finish Chap. 5</t>
   </si>
   <si>
     <t>Finish Chap. 10</t>
   </si>
   <si>
-    <t>Finish Chap. 8</t>
-  </si>
-  <si>
-    <t>Finish Chap. 4</t>
-  </si>
-  <si>
-    <t>Review Chap. 4 code</t>
-  </si>
-  <si>
-    <t>Finish Chap. 5</t>
-  </si>
-  <si>
-    <t>May 30th</t>
-  </si>
-  <si>
-    <t>Finish Chap. 7</t>
-  </si>
-  <si>
-    <t>Review Chap. 8 code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 15th </t>
+    <t>June 20th</t>
+  </si>
+  <si>
+    <t>Review Chap. 5 code</t>
   </si>
   <si>
     <t>July 1st</t>
   </si>
   <si>
-    <t>Review Chap. 5 code</t>
+    <t>Review Chap. 10 code</t>
+  </si>
+  <si>
+    <t>SA/CT</t>
   </si>
   <si>
     <t>Finish Chap. 12</t>
@@ -92,9 +117,6 @@
     <t>Finish Chap. 6</t>
   </si>
   <si>
-    <t>SA/CT</t>
-  </si>
-  <si>
     <t>July 15th</t>
   </si>
   <si>
@@ -103,27 +125,12 @@
   <si>
     <t>Review chap. 12 code</t>
   </si>
-  <si>
-    <t>June 20th</t>
-  </si>
-  <si>
-    <t>Review Chap. 10 code</t>
-  </si>
-  <si>
-    <t>Check if Chap. 9 needs comments</t>
-  </si>
-  <si>
-    <t>April 19th</t>
-  </si>
-  <si>
-    <t>Codeshare Project schedule</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,216 +453,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8">
       <c r="E17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8">
       <c r="D18" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8">
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8">
       <c r="D20" s="1"/>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8">
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
       <c r="F23" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8">
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8">
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:8">
       <c r="H26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8">
       <c r="G27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8">
       <c r="G28" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -665,65 +672,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-7928</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-7928</Url>
+      <Description>VMX3MACP777Z-432858100-7928</Description>
+    </_dlc_DocIdUrl>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="476" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c59892ab5c8720a9bb86c88d309574b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="112c39e52fac477e80d68a32927625ca" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -966,55 +929,77 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-7928</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-7928</Url>
-      <Description>VMX3MACP777Z-432858100-7928</Description>
-    </_dlc_DocIdUrl>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{135192B1-AE44-4DF9-9F56-BE344A26839A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5076054-2546-4643-BC98-8BC13069EB33}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6C744B3-0B92-46FE-B168-F230EFDBBDE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{419FB4CD-499C-4AC4-BB83-F9294CC4804B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{419FB4CD-499C-4AC4-BB83-F9294CC4804B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6C744B3-0B92-46FE-B168-F230EFDBBDE3}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5076054-2546-4643-BC98-8BC13069EB33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{135192B1-AE44-4DF9-9F56-BE344A26839A}"/>
 </file>